--- a/12.14_20.xlsx
+++ b/12.14_20.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
-    <t>https://link.springer.com/search?just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Theoretical+and+Applied+Mechanics%22&amp;facet-sub-discipline=%22Theoretical+and+Applied+Mechanics%22&amp;facet-content-type=ConferencePaper&amp;date-facet-mode=between&amp;facet-start-year=2014&amp;previous-start-year=1956&amp;facet-end-year=2019&amp;previous-end-year=2020</t>
+    <t>https://link.springer.com/search/page/{}?just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Theoretical+and+Applied+Mechanics%22&amp;facet-sub-discipline=%22Theoretical+and+Applied+Mechanics%22&amp;facet-content-type=ConferencePaper&amp;date-facet-mode=between&amp;facet-start-year=2014&amp;previous-start-year=1956&amp;facet-end-year=2019&amp;previous-end-year=2020</t>
   </si>
   <si>
     <t>Theoretical and Applied Mechanics</t>
@@ -30,115 +30,115 @@
     <t>来源：Sprnger Link 位置：2014-2019</t>
   </si>
   <si>
-    <t>https://link.springer.com/search?just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Control+and+Systems+Theory%22&amp;facet-sub-discipline=%22Control+and+Systems+Theory%22&amp;facet-content-type=ConferencePaper&amp;date-facet-mode=between&amp;facet-start-year=2014&amp;previous-start-year=1982&amp;facet-end-year=2019&amp;previous-end-year=2020</t>
+    <t>https://link.springer.com/search/page/{}?just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Control+and+Systems+Theory%22&amp;facet-sub-discipline=%22Control+and+Systems+Theory%22&amp;facet-content-type=ConferencePaper&amp;date-facet-mode=between&amp;facet-start-year=2014&amp;previous-start-year=1982&amp;facet-end-year=2019&amp;previous-end-year=2020</t>
   </si>
   <si>
     <t>Control and Systems Theory</t>
   </si>
   <si>
-    <t>https://link.springer.com/search?just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Numerical+and+Computational+Physics%2C+Simulation%22&amp;facet-sub-discipline=%22Numerical+and+Computational+Physics%2C+Simulation%22&amp;facet-content-type=ConferencePaper&amp;date-facet-mode=between&amp;facet-start-year=2014&amp;previous-start-year=1973&amp;facet-end-year=2019&amp;previous-end-year=2020</t>
+    <t>https://link.springer.com/search/page/{}?just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Numerical+and+Computational+Physics%2C+Simulation%22&amp;facet-sub-discipline=%22Numerical+and+Computational+Physics%2C+Simulation%22&amp;facet-content-type=ConferencePaper&amp;date-facet-mode=between&amp;facet-start-year=2014&amp;previous-start-year=1973&amp;facet-end-year=2019&amp;previous-end-year=2020</t>
   </si>
   <si>
     <t>Numerical and Computational Physics, Simulation</t>
   </si>
   <si>
-    <t>https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Ecology%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Ecology%22</t>
+    <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Ecology%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Ecology%22</t>
   </si>
   <si>
     <t>Ecology</t>
   </si>
   <si>
-    <t>https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Theoretical%2C+Mathematical+and+Computational+Physics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Theoretical%2C+Mathematical+and+Computational+Physics%22</t>
+    <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Theoretical%2C+Mathematical+and+Computational+Physics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Theoretical%2C+Mathematical+and+Computational+Physics%22</t>
   </si>
   <si>
     <t>Theoretical, Mathematical and Computational Physics</t>
   </si>
   <si>
-    <t>https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Neurosurgery%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Neurosurgery%22</t>
+    <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Neurosurgery%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Neurosurgery%22</t>
   </si>
   <si>
     <t>Neurosurgery</t>
   </si>
   <si>
-    <t>https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Internal+Medicine%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Internal+Medicine%22</t>
+    <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Internal+Medicine%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Internal+Medicine%22</t>
   </si>
   <si>
     <t>Internal Medicine</t>
   </si>
   <si>
-    <t>https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Life+Sciences%2C+general%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Life+Sciences%2C+general%22</t>
+    <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Life+Sciences%2C+general%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Life+Sciences%2C+general%22</t>
   </si>
   <si>
     <t>Life Sciences, general</t>
   </si>
   <si>
-    <t>https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Marketing%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Marketing%22</t>
+    <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Marketing%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Marketing%22</t>
   </si>
   <si>
     <t>Marketing</t>
   </si>
   <si>
-    <t>https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Condensed+Matter+Physics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Condensed+Matter+Physics%22</t>
+    <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Condensed+Matter+Physics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Condensed+Matter+Physics%22</t>
   </si>
   <si>
     <t>Condensed Matter Physics</t>
   </si>
   <si>
-    <t>https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Computational+Science+and+Engineering%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Computational+Science+and+Engineering%22</t>
+    <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Computational+Science+and+Engineering%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Computational+Science+and+Engineering%22</t>
   </si>
   <si>
     <t>Computational Science and Engineering</t>
   </si>
   <si>
-    <t>https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Geoengineering%2C+Foundations%2C+Hydraulics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Geoengineering%2C+Foundations%2C+Hydraulics%22</t>
+    <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Geoengineering%2C+Foundations%2C+Hydraulics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Geoengineering%2C+Foundations%2C+Hydraulics%22</t>
   </si>
   <si>
     <t>Geoengineering, Foundations, Hydraulics</t>
   </si>
   <si>
-    <t>https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Physics%2C+general%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Physics%2C+general%22</t>
+    <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Physics%2C+general%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Physics%2C+general%22</t>
   </si>
   <si>
     <t>Physics, general</t>
   </si>
   <si>
-    <t>https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Intensive+%2F+Critical+Care+Medicine%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Intensive+%2F+Critical+Care+Medicine%22</t>
+    <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Intensive+%2F+Critical+Care+Medicine%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Intensive+%2F+Critical+Care+Medicine%22</t>
   </si>
   <si>
     <t>Intensive / Critical Care Medicine</t>
   </si>
   <si>
-    <t>https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Innovation%2FTechnology+Management%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Innovation%2FTechnology+Management%22</t>
+    <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Innovation%2FTechnology+Management%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Innovation%2FTechnology+Management%22</t>
   </si>
   <si>
     <t>Innovation/Technology Management</t>
   </si>
   <si>
-    <t>https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Analysis%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Analysis%22</t>
+    <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Analysis%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Analysis%22</t>
   </si>
   <si>
     <t>Analysis</t>
   </si>
   <si>
-    <t>https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Quality+Control%2C+Reliability%2C+Safety+and+Risk%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Quality+Control%2C+Reliability%2C+Safety+and+Risk%22</t>
+    <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Quality+Control%2C+Reliability%2C+Safety+and+Risk%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Quality+Control%2C+Reliability%2C+Safety+and+Risk%22</t>
   </si>
   <si>
     <t>Quality Control, Reliability, Safety and Risk</t>
   </si>
   <si>
-    <t>https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Anesthesiology%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Anesthesiology%22</t>
+    <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Anesthesiology%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Anesthesiology%22</t>
   </si>
   <si>
     <t>Anesthesiology</t>
   </si>
   <si>
-    <t>https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Complex+Systems%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Complex+Systems%22</t>
+    <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Complex+Systems%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Complex+Systems%22</t>
   </si>
   <si>
     <t>Complex Systems</t>
   </si>
   <si>
-    <t>https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Symbolic+and+Algebraic+Manipulation%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Symbolic+and+Algebraic+Manipulation%22</t>
+    <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Symbolic+and+Algebraic+Manipulation%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Symbolic+and+Algebraic+Manipulation%22</t>
   </si>
   <si>
     <t>Symbolic and Algebraic Manipulation</t>
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1419,26 +1419,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://link.springer.com/search?just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Theoretical+and+Applied+Mechanics%22&amp;facet-sub-discipline=%22Theoretical+and+Applied+Mechanics%22&amp;facet-content-type=ConferencePaper&amp;date-facet-mode=between&amp;facet-start-year=2014&amp;previous-start-year=1956&amp;facet-end-year=2019&amp;previous-end-year=2020" tooltip="https://link.springer.com/search?just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Theoretical+and+Applied+Mechanics%22&amp;facet-sub-discipline=%22Theoretical+and+Applied+Mechanics%22&amp;facet-content-type=ConferencePaper&amp;date-"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://link.springer.com/search?just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Control+and+Systems+Theory%22&amp;facet-sub-discipline=%22Control+and+Systems+Theory%22&amp;facet-content-type=ConferencePaper&amp;date-facet-mode=between&amp;facet-start-year=2014&amp;previous-start-year=1982&amp;facet-end-year=2019&amp;previous-end-year=2020" tooltip="https://link.springer.com/search?just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Control+and+Systems+Theory%22&amp;facet-sub-discipline=%22Control+and+Systems+Theory%22&amp;facet-content-type=ConferencePaper&amp;date-facet-mode=bet"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://link.springer.com/search?just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Numerical+and+Computational+Physics%2C+Simulation%22&amp;facet-sub-discipline=%22Numerical+and+Computational+Physics%2C+Simulation%22&amp;facet-content-type=ConferencePaper&amp;date-facet-mode=between&amp;facet-start-year=2014&amp;previous-start-year=1973&amp;facet-end-year=2019&amp;previous-end-year=2020" tooltip="https://link.springer.com/search?just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Numerical+and+Computational+Physics%2C+Simulation%22&amp;facet-sub-discipline=%22Numerical+and+Computational+Physics%2C+Simulation%22&amp;facet-co"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Ecology%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Ecology%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Ecology%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Ecology%22"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Theoretical%2C+Mathematical+and+Computational+Physics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Theoretical%2C+Mathematical+and+Computational+Physics%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Theoretical%2C+Mathematical+and+Computational+Physics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Theoretical%2C+Mathema"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Neurosurgery%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Neurosurgery%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Neurosurgery%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Neurosurgery%22"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Internal+Medicine%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Internal+Medicine%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Internal+Medicine%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Internal+Medicine%22"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Life+Sciences%2C+general%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Life+Sciences%2C+general%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Life+Sciences%2C+general%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Life+Sciences%2C+general%22"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Marketing%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Marketing%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Marketing%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Marketing%22"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Condensed+Matter+Physics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Condensed+Matter+Physics%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Condensed+Matter+Physics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Condensed+Matter+Physics%22"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Computational+Science+and+Engineering%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Computational+Science+and+Engineering%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Computational+Science+and+Engineering%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Computational+Science+and+Engineering%"/>
-    <hyperlink ref="A12" r:id="rId12" display="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Geoengineering%2C+Foundations%2C+Hydraulics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Geoengineering%2C+Foundations%2C+Hydraulics%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Geoengineering%2C+Foundations%2C+Hydraulics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Geoengineering%2C+Foundations%2C"/>
-    <hyperlink ref="A13" r:id="rId13" display="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Physics%2C+general%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Physics%2C+general%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Physics%2C+general%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Physics%2C+general%22"/>
-    <hyperlink ref="A14" r:id="rId14" display="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Intensive+%2F+Critical+Care+Medicine%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Intensive+%2F+Critical+Care+Medicine%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Intensive+%2F+Critical+Care+Medicine%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Intensive+%2F+Critical+Care+Medicine%22"/>
-    <hyperlink ref="A15" r:id="rId15" display="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Innovation%2FTechnology+Management%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Innovation%2FTechnology+Management%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Innovation%2FTechnology+Management%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Innovation%2FTechnology+Management%22"/>
-    <hyperlink ref="A16" r:id="rId16" display="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Analysis%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Analysis%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Analysis%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Analysis%22"/>
-    <hyperlink ref="A17" r:id="rId17" display="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Quality+Control%2C+Reliability%2C+Safety+and+Risk%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Quality+Control%2C+Reliability%2C+Safety+and+Risk%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Quality+Control%2C+Reliability%2C+Safety+and+Risk%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Quality+Control%2C+Reliabi"/>
-    <hyperlink ref="A18" r:id="rId18" display="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Anesthesiology%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Anesthesiology%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Anesthesiology%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Anesthesiology%22"/>
-    <hyperlink ref="A19" r:id="rId19" display="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Complex+Systems%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Complex+Systems%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Complex+Systems%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Complex+Systems%22"/>
-    <hyperlink ref="A20" r:id="rId20" display="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Symbolic+and+Algebraic+Manipulation%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Symbolic+and+Algebraic+Manipulation%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Symbolic+and+Algebraic+Manipulation%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Symbolic+and+Algebraic+Manipulation%22"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://link.springer.com/search/page/{}?just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Theoretical+and+Applied+Mechanics%22&amp;facet-sub-discipline=%22Theoretical+and+Applied+Mechanics%22&amp;facet-content-type=ConferencePaper&amp;date-facet-mode=between&amp;facet-start-year=2014&amp;previous-start-year=1956&amp;facet-end-year=2019&amp;previous-end-year=2020" tooltip="https://link.springer.com/search?just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Theoretical+and+Applied+Mechanics%22&amp;facet-sub-discipline=%22Theoretical+and+Applied+Mechanics%22&amp;facet-content-type=ConferencePaper&amp;date-"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://link.springer.com/search/page/{}?just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Control+and+Systems+Theory%22&amp;facet-sub-discipline=%22Control+and+Systems+Theory%22&amp;facet-content-type=ConferencePaper&amp;date-facet-mode=between&amp;facet-start-year=2014&amp;previous-start-year=1982&amp;facet-end-year=2019&amp;previous-end-year=2020" tooltip="https://link.springer.com/search?just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Control+and+Systems+Theory%22&amp;facet-sub-discipline=%22Control+and+Systems+Theory%22&amp;facet-content-type=ConferencePaper&amp;date-facet-mode=bet"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://link.springer.com/search/page/{}?just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Numerical+and+Computational+Physics%2C+Simulation%22&amp;facet-sub-discipline=%22Numerical+and+Computational+Physics%2C+Simulation%22&amp;facet-content-type=ConferencePaper&amp;date-facet-mode=between&amp;facet-start-year=2014&amp;previous-start-year=1973&amp;facet-end-year=2019&amp;previous-end-year=2020" tooltip="https://link.springer.com/search?just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Numerical+and+Computational+Physics%2C+Simulation%22&amp;facet-sub-discipline=%22Numerical+and+Computational+Physics%2C+Simulation%22&amp;facet-co"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Ecology%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Ecology%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Ecology%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Ecology%22"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Theoretical%2C+Mathematical+and+Computational+Physics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Theoretical%2C+Mathematical+and+Computational+Physics%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Theoretical%2C+Mathematical+and+Computational+Physics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Theoretical%2C+Mathema"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Neurosurgery%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Neurosurgery%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Neurosurgery%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Neurosurgery%22"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Internal+Medicine%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Internal+Medicine%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Internal+Medicine%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Internal+Medicine%22"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Life+Sciences%2C+general%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Life+Sciences%2C+general%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Life+Sciences%2C+general%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Life+Sciences%2C+general%22"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Marketing%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Marketing%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Marketing%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Marketing%22"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Condensed+Matter+Physics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Condensed+Matter+Physics%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Condensed+Matter+Physics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Condensed+Matter+Physics%22"/>
+    <hyperlink ref="A11" r:id="rId11" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Computational+Science+and+Engineering%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Computational+Science+and+Engineering%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Computational+Science+and+Engineering%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Computational+Science+and+Engineering%"/>
+    <hyperlink ref="A12" r:id="rId12" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Geoengineering%2C+Foundations%2C+Hydraulics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Geoengineering%2C+Foundations%2C+Hydraulics%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Geoengineering%2C+Foundations%2C+Hydraulics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Geoengineering%2C+Foundations%2C"/>
+    <hyperlink ref="A13" r:id="rId13" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Physics%2C+general%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Physics%2C+general%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Physics%2C+general%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Physics%2C+general%22"/>
+    <hyperlink ref="A14" r:id="rId14" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Intensive+%2F+Critical+Care+Medicine%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Intensive+%2F+Critical+Care+Medicine%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Intensive+%2F+Critical+Care+Medicine%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Intensive+%2F+Critical+Care+Medicine%22"/>
+    <hyperlink ref="A15" r:id="rId15" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Innovation%2FTechnology+Management%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Innovation%2FTechnology+Management%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Innovation%2FTechnology+Management%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Innovation%2FTechnology+Management%22"/>
+    <hyperlink ref="A16" r:id="rId16" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Analysis%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Analysis%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Analysis%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Analysis%22"/>
+    <hyperlink ref="A17" r:id="rId17" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Quality+Control%2C+Reliability%2C+Safety+and+Risk%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Quality+Control%2C+Reliability%2C+Safety+and+Risk%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Quality+Control%2C+Reliability%2C+Safety+and+Risk%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Quality+Control%2C+Reliabi"/>
+    <hyperlink ref="A18" r:id="rId18" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Anesthesiology%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Anesthesiology%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Anesthesiology%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Anesthesiology%22"/>
+    <hyperlink ref="A19" r:id="rId19" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Complex+Systems%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Complex+Systems%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Complex+Systems%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Complex+Systems%22"/>
+    <hyperlink ref="A20" r:id="rId20" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Symbolic+and+Algebraic+Manipulation%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Symbolic+and+Algebraic+Manipulation%22" tooltip="https://link.springer.com/search?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Symbolic+and+Algebraic+Manipulation%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Symbolic+and+Algebraic+Manipulation%22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
